--- a/data/trans_bre/IMC_inf_MED_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IMC_inf_MED_R2-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-14,08</t>
+          <t>-9,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-27,1</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-34,08</t>
+          <t>-17,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,06%</t>
+          <t>-17,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-45,18%</t>
+          <t>-18,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-60,15%</t>
+          <t>-35,5%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-45,3; 18,18</t>
+          <t>-21,62; 2,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-57,4; 11,39</t>
+          <t>-23,21; 2,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-75,91; 17,67</t>
+          <t>-33,87; -2,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-61,63; 39,8</t>
+          <t>-35,95; 5,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,61; 31,32</t>
+          <t>-39,25; 5,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 84,08</t>
+          <t>-57,66; -5,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,72</t>
+          <t>-15,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-19,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,94</t>
+          <t>-19,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>-27,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,6%</t>
+          <t>-41,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-32,77%</t>
+          <t>-41,08%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 4,97</t>
+          <t>-24,77; -6,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 7,38</t>
+          <t>-27,53; -10,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,63; -0,11</t>
+          <t>-33,21; -6,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 11,05</t>
+          <t>-40,1; -11,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 17,48</t>
+          <t>-54,53; -25,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,13; -0,42</t>
+          <t>-61,63; -16,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-15,79</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-19,04</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-19,49</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-27,3%</t>
+          <t>-10,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-41,25%</t>
+          <t>-4,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-40,64%</t>
+          <t>-28,56%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,93; -6,7</t>
+          <t>-15,29; 6,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,57; -10,54</t>
+          <t>-11,78; 8,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,06; -6,82</t>
+          <t>-30,56; 9,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,85; -12,42</t>
+          <t>-28,3; 14,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,7; -24,72</t>
+          <t>-28,68; 26,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,03; -14,32</t>
+          <t>-75,8; 28,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>-6,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>-19,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-6,69%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 5,97</t>
+          <t>-13,69; 7,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 7,51</t>
+          <t>-19,1; 0,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 10,93</t>
+          <t>-15,81; 11,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 13,22</t>
+          <t>-25,23; 16,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 24,21</t>
+          <t>-35,96; 1,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,15; 42,17</t>
+          <t>-41,49; 42,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-10,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-13,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-19,08%</t>
+          <t>-23,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>-32,43%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 8,13</t>
+          <t>-14,05; -4,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 0,55</t>
+          <t>-15,38; -5,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 10,65</t>
+          <t>-24,25; -4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 17,69</t>
+          <t>-24,96; -7,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 1,25</t>
+          <t>-32,25; -13,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 47,91</t>
+          <t>-56,09; -13,85</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-8,65</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-10,57</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-12,26</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-16,1%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-23,31%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-29,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-13,9; -3,91</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-15,95; -5,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-19,33; -4,92</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-24,72; -7,57</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-33,01; -11,86</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-43,34; -12,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
